--- a/ECB_stdev.xlsx
+++ b/ECB_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,13 +133,13 @@
         <v>5.7047338485717773</v>
       </c>
       <c r="C5" s="2">
-        <v>5.6439018249511719</v>
+        <v>5.645317554473877</v>
       </c>
       <c r="D5" s="2">
         <v>5.6991052627563477</v>
       </c>
       <c r="E5" s="2">
-        <v>5.6111340522766113</v>
+        <v>5.611454963684082</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>6.0612626075744629</v>
       </c>
       <c r="C6" s="2">
-        <v>5.970522403717041</v>
+        <v>5.969630241394043</v>
       </c>
       <c r="D6" s="2">
         <v>5.7083125114440918</v>
       </c>
       <c r="E6" s="2">
-        <v>5.6213531494140625</v>
+        <v>5.6223301887512207</v>
       </c>
     </row>
     <row r="7">
@@ -167,13 +167,13 @@
         <v>5.649012565612793</v>
       </c>
       <c r="C7" s="2">
-        <v>5.5447120666503906</v>
+        <v>5.5458149909973145</v>
       </c>
       <c r="D7" s="2">
         <v>5.6333155632019043</v>
       </c>
       <c r="E7" s="2">
-        <v>5.5516862869262695</v>
+        <v>5.5526342391967774</v>
       </c>
     </row>
     <row r="8">
@@ -184,13 +184,13 @@
         <v>5.9765419960021973</v>
       </c>
       <c r="C8" s="2">
-        <v>5.9224977493286133</v>
+        <v>5.9212322235107422</v>
       </c>
       <c r="D8" s="2">
         <v>5.6158556938171387</v>
       </c>
       <c r="E8" s="2">
-        <v>5.5397205352783203</v>
+        <v>5.5406298637390137</v>
       </c>
     </row>
     <row r="9">
@@ -201,13 +201,13 @@
         <v>5.1039748191833496</v>
       </c>
       <c r="C9" s="2">
-        <v>4.9740352630615234</v>
+        <v>4.9752802848815918</v>
       </c>
       <c r="D9" s="2">
         <v>5.6924982070922852</v>
       </c>
       <c r="E9" s="2">
-        <v>5.6204533576965332</v>
+        <v>5.6210479736328125</v>
       </c>
     </row>
     <row r="10">
@@ -218,13 +218,13 @@
         <v>5.7543487548828125</v>
       </c>
       <c r="C10" s="2">
-        <v>5.6724491119384766</v>
+        <v>5.6767063140869141</v>
       </c>
       <c r="D10" s="2">
         <v>5.6649913787841797</v>
       </c>
       <c r="E10" s="2">
-        <v>5.5955710411071777</v>
+        <v>5.5956540107727051</v>
       </c>
     </row>
     <row r="11">
@@ -235,13 +235,13 @@
         <v>5.1833343505859375</v>
       </c>
       <c r="C11" s="2">
-        <v>5.1336846351623535</v>
+        <v>5.1344571113586426</v>
       </c>
       <c r="D11" s="2">
         <v>5.6486959457397461</v>
       </c>
       <c r="E11" s="2">
-        <v>5.5867629051208496</v>
+        <v>5.5865097045898438</v>
       </c>
     </row>
     <row r="12">
@@ -252,13 +252,13 @@
         <v>5.4936356544494629</v>
       </c>
       <c r="C12" s="2">
-        <v>5.4559626579284668</v>
+        <v>5.4565997123718262</v>
       </c>
       <c r="D12" s="2">
         <v>5.6922369003295898</v>
       </c>
       <c r="E12" s="2">
-        <v>5.6389608383178711</v>
+        <v>5.6382255554199219</v>
       </c>
     </row>
     <row r="13">
@@ -266,16 +266,16 @@
         <v>44166</v>
       </c>
       <c r="B13" s="2">
-        <v>6.305640697479248</v>
+        <v>6.3056406974792481</v>
       </c>
       <c r="C13" s="2">
-        <v>6.2663149833679199</v>
+        <v>6.2643928527832031</v>
       </c>
       <c r="D13" s="2">
         <v>5.6948094367980957</v>
       </c>
       <c r="E13" s="2">
-        <v>5.6407222747802734</v>
+        <v>5.6409592628479004</v>
       </c>
     </row>
     <row r="14">
@@ -286,13 +286,13 @@
         <v>5.4571723937988281</v>
       </c>
       <c r="C14" s="2">
-        <v>5.4199600219726562</v>
+        <v>5.4167733192443848</v>
       </c>
       <c r="D14" s="2">
         <v>5.8224291801452637</v>
       </c>
       <c r="E14" s="2">
-        <v>5.7798933982849121</v>
+        <v>5.7801923751831055</v>
       </c>
     </row>
     <row r="15">
@@ -303,13 +303,13 @@
         <v>5.9146013259887695</v>
       </c>
       <c r="C15" s="2">
-        <v>5.8912510871887207</v>
+        <v>5.8873319625854492</v>
       </c>
       <c r="D15" s="2">
         <v>5.8349251747131348</v>
       </c>
       <c r="E15" s="2">
-        <v>5.794654369354248</v>
+        <v>5.7945551872253418</v>
       </c>
     </row>
     <row r="16">
@@ -320,13 +320,13 @@
         <v>6.0408816337585449</v>
       </c>
       <c r="C16" s="2">
-        <v>6.0144901275634766</v>
+        <v>6.0112552642822266</v>
       </c>
       <c r="D16" s="2">
         <v>5.8363990783691406</v>
       </c>
       <c r="E16" s="2">
-        <v>5.7899999618530273</v>
+        <v>5.7897534370422363</v>
       </c>
     </row>
     <row r="17">
@@ -337,13 +337,13 @@
         <v>5.9996933937072754</v>
       </c>
       <c r="C17" s="2">
-        <v>5.9383506774902344</v>
+        <v>5.945836067199707</v>
       </c>
       <c r="D17" s="2">
         <v>5.7614188194274902</v>
       </c>
       <c r="E17" s="2">
-        <v>5.7139787673950195</v>
+        <v>5.7135281562805176</v>
       </c>
     </row>
     <row r="18">
@@ -354,13 +354,13 @@
         <v>6.2525529861450195</v>
       </c>
       <c r="C18" s="2">
-        <v>6.2265758514404297</v>
+        <v>6.2283806800842285</v>
       </c>
       <c r="D18" s="2">
         <v>5.6302089691162109</v>
       </c>
       <c r="E18" s="2">
-        <v>5.5822553634643555</v>
+        <v>5.582005500793457</v>
       </c>
     </row>
     <row r="19">
@@ -371,13 +371,13 @@
         <v>5.866814136505127</v>
       </c>
       <c r="C19" s="2">
-        <v>5.8053007125854492</v>
+        <v>5.8059678077697754</v>
       </c>
       <c r="D19" s="2">
         <v>5.6175198554992676</v>
       </c>
       <c r="E19" s="2">
-        <v>5.5593786239624023</v>
+        <v>5.5592217445373535</v>
       </c>
     </row>
     <row r="20">
@@ -385,16 +385,16 @@
         <v>44378</v>
       </c>
       <c r="B20" s="2">
-        <v>5.196601390838623</v>
+        <v>5.1966013908386231</v>
       </c>
       <c r="C20" s="2">
-        <v>5.0917949676513672</v>
+        <v>5.0912413597106934</v>
       </c>
       <c r="D20" s="2">
         <v>5.5853214263916016</v>
       </c>
       <c r="E20" s="2">
-        <v>5.5206661224365234</v>
+        <v>5.5206890106201172</v>
       </c>
     </row>
     <row r="21">
@@ -405,13 +405,13 @@
         <v>4.818809986114502</v>
       </c>
       <c r="C21" s="2">
-        <v>4.7717723846435547</v>
+        <v>4.7705726623535156</v>
       </c>
       <c r="D21" s="2">
         <v>5.5110626220703125</v>
       </c>
       <c r="E21" s="2">
-        <v>5.4469685554504395</v>
+        <v>5.4474058151245117</v>
       </c>
     </row>
     <row r="22">
@@ -422,13 +422,13 @@
         <v>5.1247549057006836</v>
       </c>
       <c r="C22" s="2">
-        <v>5.0808043479919434</v>
+        <v>5.0806922912597656</v>
       </c>
       <c r="D22" s="2">
         <v>5.4660730361938477</v>
       </c>
       <c r="E22" s="2">
-        <v>5.4011635780334473</v>
+        <v>5.4005284309387207</v>
       </c>
     </row>
     <row r="23">
@@ -439,13 +439,13 @@
         <v>5.3429675102233887</v>
       </c>
       <c r="C23" s="2">
-        <v>5.2140688896179199</v>
+        <v>5.2117195129394531</v>
       </c>
       <c r="D23" s="2">
         <v>5.3781313896179199</v>
       </c>
       <c r="E23" s="2">
-        <v>5.2970495223999023</v>
+        <v>5.2963662147521973</v>
       </c>
     </row>
     <row r="24">
@@ -456,13 +456,13 @@
         <v>5.6248159408569336</v>
       </c>
       <c r="C24" s="2">
-        <v>5.5428390502929688</v>
+        <v>5.5405364036560059</v>
       </c>
       <c r="D24" s="2">
         <v>5.3765053749084473</v>
       </c>
       <c r="E24" s="2">
-        <v>5.292083740234375</v>
+        <v>5.2911272048950195</v>
       </c>
     </row>
     <row r="25">
@@ -473,13 +473,13 @@
         <v>5.3725547790527344</v>
       </c>
       <c r="C25" s="2">
-        <v>5.3512105941772461</v>
+        <v>5.3517045974731445</v>
       </c>
       <c r="D25" s="2">
         <v>5.4768271446228027</v>
       </c>
       <c r="E25" s="2">
-        <v>5.3978152275085449</v>
+        <v>5.3965768814086914</v>
       </c>
     </row>
     <row r="26">
@@ -490,13 +490,13 @@
         <v>5.5947842597961426</v>
       </c>
       <c r="C26" s="2">
-        <v>5.5261039733886719</v>
+        <v>5.5239396095275879</v>
       </c>
       <c r="D26" s="2">
         <v>5.6750822067260742</v>
       </c>
       <c r="E26" s="2">
-        <v>5.5897488594055176</v>
+        <v>5.588773250579834</v>
       </c>
     </row>
     <row r="27">
@@ -507,13 +507,13 @@
         <v>5.4610805511474609</v>
       </c>
       <c r="C27" s="2">
-        <v>5.2895493507385254</v>
+        <v>5.2909231185913086</v>
       </c>
       <c r="D27" s="2">
         <v>5.7748432159423828</v>
       </c>
       <c r="E27" s="2">
-        <v>5.690882682800293</v>
+        <v>5.6891255378723145</v>
       </c>
     </row>
     <row r="28">
@@ -521,16 +521,16 @@
         <v>44621</v>
       </c>
       <c r="B28" s="2">
-        <v>5.8521804809570312</v>
+        <v>5.8521804809570313</v>
       </c>
       <c r="C28" s="2">
-        <v>5.7606105804443359</v>
+        <v>5.7588157653808594</v>
       </c>
       <c r="D28" s="2">
         <v>5.861783504486084</v>
       </c>
       <c r="E28" s="2">
-        <v>5.7866334915161133</v>
+        <v>5.7837686538696289</v>
       </c>
     </row>
     <row r="29">
@@ -541,13 +541,13 @@
         <v>6.0994977951049805</v>
       </c>
       <c r="C29" s="2">
-        <v>6.0433783531188965</v>
+        <v>6.0402865409851074</v>
       </c>
       <c r="D29" s="2">
         <v>5.9633522033691406</v>
       </c>
       <c r="E29" s="2">
-        <v>5.8988852500915527</v>
+        <v>5.8952398300170898</v>
       </c>
     </row>
     <row r="30">
@@ -558,13 +558,13 @@
         <v>6.6031031608581543</v>
       </c>
       <c r="C30" s="2">
-        <v>6.499176025390625</v>
+        <v>6.5003409385681152</v>
       </c>
       <c r="D30" s="2">
         <v>6.1079134941101074</v>
       </c>
       <c r="E30" s="2">
-        <v>6.045283317565918</v>
+        <v>6.0406036376953125</v>
       </c>
     </row>
     <row r="31">
@@ -575,13 +575,13 @@
         <v>6.0226054191589355</v>
       </c>
       <c r="C31" s="2">
-        <v>5.9910087585449219</v>
+        <v>5.9838614463806152</v>
       </c>
       <c r="D31" s="2">
         <v>6.231046199798584</v>
       </c>
       <c r="E31" s="2">
-        <v>6.1668567657470703</v>
+        <v>6.1617317199707031</v>
       </c>
     </row>
     <row r="32">
@@ -592,13 +592,13 @@
         <v>6.1254277229309082</v>
       </c>
       <c r="C32" s="2">
-        <v>6.0758266448974609</v>
+        <v>6.0635075569152832</v>
       </c>
       <c r="D32" s="2">
         <v>6.3293147087097168</v>
       </c>
       <c r="E32" s="2">
-        <v>6.2812089920043945</v>
+        <v>6.2751312255859375</v>
       </c>
     </row>
     <row r="33">
@@ -609,13 +609,13 @@
         <v>6.5389351844787598</v>
       </c>
       <c r="C33" s="2">
-        <v>6.5531039237976074</v>
+        <v>6.5437774658203125</v>
       </c>
       <c r="D33" s="2">
         <v>6.4010438919067383</v>
       </c>
       <c r="E33" s="2">
-        <v>6.3575682640075684</v>
+        <v>6.3509330749511719</v>
       </c>
     </row>
     <row r="34">
@@ -626,13 +626,13 @@
         <v>6.6736087799072266</v>
       </c>
       <c r="C34" s="2">
-        <v>6.6687917709350586</v>
+        <v>6.6599817276000977</v>
       </c>
       <c r="D34" s="2">
         <v>6.440340518951416</v>
       </c>
       <c r="E34" s="2">
-        <v>6.4031486511230469</v>
+        <v>6.3951349258422852</v>
       </c>
     </row>
     <row r="35">
@@ -643,13 +643,13 @@
         <v>6.7029752731323242</v>
       </c>
       <c r="C35" s="2">
-        <v>6.620265007019043</v>
+        <v>6.6140913963317871</v>
       </c>
       <c r="D35" s="2">
         <v>6.4409151077270508</v>
       </c>
       <c r="E35" s="2">
-        <v>6.4101724624633789</v>
+        <v>6.4008455276489258</v>
       </c>
     </row>
     <row r="36">
@@ -657,16 +657,16 @@
         <v>44866</v>
       </c>
       <c r="B36" s="2">
-        <v>6.3454971313476562</v>
+        <v>6.3454971313476563</v>
       </c>
       <c r="C36" s="2">
-        <v>6.3187193870544434</v>
+        <v>6.3115172386169434</v>
       </c>
       <c r="D36" s="2">
         <v>6.5012750625610352</v>
       </c>
       <c r="E36" s="2">
-        <v>6.4738917350769043</v>
+        <v>6.4642939567565918</v>
       </c>
     </row>
     <row r="37">
@@ -677,13 +677,13 @@
         <v>6.497744083404541</v>
       </c>
       <c r="C37" s="2">
-        <v>6.4478449821472168</v>
+        <v>6.441035270690918</v>
       </c>
       <c r="D37" s="2">
         <v>6.5255379676818848</v>
       </c>
       <c r="E37" s="2">
-        <v>6.5065288543701172</v>
+        <v>6.4973864555358887</v>
       </c>
     </row>
     <row r="38">
@@ -694,13 +694,13 @@
         <v>6.4531660079956055</v>
       </c>
       <c r="C38" s="2">
-        <v>6.4535994529724121</v>
+        <v>6.4380998611450195</v>
       </c>
       <c r="D38" s="2">
         <v>6.5302543640136719</v>
       </c>
       <c r="E38" s="2">
-        <v>6.4937214851379395</v>
+        <v>6.4840688705444336</v>
       </c>
     </row>
     <row r="39">
@@ -711,13 +711,13 @@
         <v>6.6082763671875</v>
       </c>
       <c r="C39" s="2">
-        <v>6.5623917579650879</v>
+        <v>6.5517382621765137</v>
       </c>
       <c r="D39" s="2">
         <v>6.4985394477844238</v>
       </c>
       <c r="E39" s="2">
-        <v>6.4557371139526367</v>
+        <v>6.4460601806640625</v>
       </c>
     </row>
     <row r="40">
@@ -728,13 +728,13 @@
         <v>6.5658445358276367</v>
       </c>
       <c r="C40" s="2">
-        <v>6.5644817352294922</v>
+        <v>6.5548977851867676</v>
       </c>
       <c r="D40" s="2">
         <v>6.4407458305358887</v>
       </c>
       <c r="E40" s="2">
-        <v>6.3956408500671387</v>
+        <v>6.3855209350585938</v>
       </c>
     </row>
     <row r="41">
@@ -745,13 +745,13 @@
         <v>6.3437948226928711</v>
       </c>
       <c r="C41" s="2">
-        <v>6.3695597648620605</v>
+        <v>6.3613371849060059</v>
       </c>
       <c r="D41" s="2">
         <v>6.4252057075500488</v>
       </c>
       <c r="E41" s="2">
-        <v>6.3766565322875977</v>
+        <v>6.3659548759460449</v>
       </c>
     </row>
     <row r="42">
@@ -762,13 +762,13 @@
         <v>6.5813808441162109</v>
       </c>
       <c r="C42" s="2">
-        <v>6.437838077545166</v>
+        <v>6.4239201545715332</v>
       </c>
       <c r="D42" s="2">
         <v>6.3403725624084473</v>
       </c>
       <c r="E42" s="2">
-        <v>6.2860980033874512</v>
+        <v>6.2751693725585938</v>
       </c>
     </row>
     <row r="43">
@@ -779,13 +779,13 @@
         <v>6.3881769180297852</v>
       </c>
       <c r="C43" s="2">
-        <v>6.326932430267334</v>
+        <v>6.3179025650024414</v>
       </c>
       <c r="D43" s="2">
         <v>6.2758331298828125</v>
       </c>
       <c r="E43" s="2">
-        <v>6.2129220962524414</v>
+        <v>6.2023115158081055</v>
       </c>
     </row>
     <row r="44">
@@ -796,13 +796,13 @@
         <v>6.1828327178955078</v>
       </c>
       <c r="C44" s="2">
-        <v>6.0794010162353516</v>
+        <v>6.0692386627197266</v>
       </c>
       <c r="D44" s="2">
         <v>6.1890888214111328</v>
       </c>
       <c r="E44" s="2">
-        <v>6.1253371238708496</v>
+        <v>6.1141557693481445</v>
       </c>
     </row>
     <row r="45">
@@ -810,16 +810,16 @@
         <v>45139</v>
       </c>
       <c r="B45" s="2">
-        <v>6.2056341171264648</v>
+        <v>6.2056341171264649</v>
       </c>
       <c r="C45" s="2">
-        <v>6.1478581428527832</v>
+        <v>6.1354241371154785</v>
       </c>
       <c r="D45" s="2">
         <v>6.0504612922668457</v>
       </c>
       <c r="E45" s="2">
-        <v>5.9842972755432129</v>
+        <v>5.9727420806884766</v>
       </c>
     </row>
     <row r="46">
@@ -830,13 +830,13 @@
         <v>5.734245777130127</v>
       </c>
       <c r="C46" s="2">
-        <v>5.6328210830688477</v>
+        <v>5.6239666938781738</v>
       </c>
       <c r="D46" s="2">
-        <v>6.0137948989868164</v>
+        <v>5.9565725326538086</v>
       </c>
       <c r="E46" s="2">
-        <v>5.9361395835876465</v>
+        <v>5.8745722770690918</v>
       </c>
     </row>
     <row r="47">
@@ -847,13 +847,13 @@
         <v>5.8723130226135254</v>
       </c>
       <c r="C47" s="2">
-        <v>5.7950129508972168</v>
+        <v>5.782379150390625</v>
       </c>
       <c r="D47" s="2">
-        <v>5.932711124420166</v>
+        <v>5.8458490371704102</v>
       </c>
       <c r="E47" s="2">
-        <v>5.8644685745239258</v>
+        <v>5.7696757316589355</v>
       </c>
     </row>
     <row r="48">
@@ -864,13 +864,13 @@
         <v>5.8275761604309082</v>
       </c>
       <c r="C48" s="2">
-        <v>5.7741293907165527</v>
+        <v>5.7583346366882324</v>
       </c>
       <c r="D48" s="2">
-        <v>5.8568000793457031</v>
+        <v>5.7523899078369141</v>
       </c>
       <c r="E48" s="2">
-        <v>5.787391185760498</v>
+        <v>5.6782407760620117</v>
       </c>
     </row>
     <row r="49">
@@ -878,26 +878,68 @@
         <v>45261</v>
       </c>
       <c r="B49" s="2">
-        <v>5.3181986808776855</v>
+        <v>5.3181986808776856</v>
       </c>
       <c r="C49" s="2">
-        <v>5.2951235771179199</v>
+        <v>5.2821760177612305</v>
       </c>
       <c r="D49" s="2">
-        <v>5.7915935516357422</v>
+        <v>5.6985845565795898</v>
       </c>
       <c r="E49" s="2">
-        <v>5.7289891242980957</v>
+        <v>5.6293659210205078</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
         <v>45292</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="B50" s="2">
+        <v>5.4987936019897461</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5.4778094291687012</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5.6261487007141113</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5.5570716857910156</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5.5848722457885742</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5.4798483848571777</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5.6081328392028809</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5.5459227561950684</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5.5470428466796875</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5.4949884414672852</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5.5552968978881836</v>
+      </c>
+      <c r="E52" s="2">
+        <v>5.498631477355957</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/ECB_stdev.xlsx
+++ b/ECB_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,13 +133,13 @@
         <v>5.7047338485717773</v>
       </c>
       <c r="C5" s="2">
-        <v>5.645317554473877</v>
+        <v>5.6461710929870605</v>
       </c>
       <c r="D5" s="2">
         <v>5.6991052627563477</v>
       </c>
       <c r="E5" s="2">
-        <v>5.611454963684082</v>
+        <v>5.6111245155334473</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>6.0612626075744629</v>
       </c>
       <c r="C6" s="2">
-        <v>5.969630241394043</v>
+        <v>5.9704365730285645</v>
       </c>
       <c r="D6" s="2">
         <v>5.7083125114440918</v>
       </c>
       <c r="E6" s="2">
-        <v>5.6223301887512207</v>
+        <v>5.622215747833252</v>
       </c>
     </row>
     <row r="7">
@@ -167,13 +167,13 @@
         <v>5.649012565612793</v>
       </c>
       <c r="C7" s="2">
-        <v>5.5458149909973145</v>
+        <v>5.5446615219116211</v>
       </c>
       <c r="D7" s="2">
         <v>5.6333155632019043</v>
       </c>
       <c r="E7" s="2">
-        <v>5.5526342391967774</v>
+        <v>5.5522623062133789</v>
       </c>
     </row>
     <row r="8">
@@ -184,13 +184,13 @@
         <v>5.9765419960021973</v>
       </c>
       <c r="C8" s="2">
-        <v>5.9212322235107422</v>
+        <v>5.9189281463623047</v>
       </c>
       <c r="D8" s="2">
         <v>5.6158556938171387</v>
       </c>
       <c r="E8" s="2">
-        <v>5.5406298637390137</v>
+        <v>5.5402340888977051</v>
       </c>
     </row>
     <row r="9">
@@ -201,13 +201,13 @@
         <v>5.1039748191833496</v>
       </c>
       <c r="C9" s="2">
-        <v>4.9752802848815918</v>
+        <v>4.9754242897033691</v>
       </c>
       <c r="D9" s="2">
         <v>5.6924982070922852</v>
       </c>
       <c r="E9" s="2">
-        <v>5.6210479736328125</v>
+        <v>5.6208658218383789</v>
       </c>
     </row>
     <row r="10">
@@ -218,13 +218,13 @@
         <v>5.7543487548828125</v>
       </c>
       <c r="C10" s="2">
-        <v>5.6767063140869141</v>
+        <v>5.6776738166809082</v>
       </c>
       <c r="D10" s="2">
         <v>5.6649913787841797</v>
       </c>
       <c r="E10" s="2">
-        <v>5.5956540107727051</v>
+        <v>5.5952486991882324</v>
       </c>
     </row>
     <row r="11">
@@ -235,13 +235,13 @@
         <v>5.1833343505859375</v>
       </c>
       <c r="C11" s="2">
-        <v>5.1344571113586426</v>
+        <v>5.1325392723083496</v>
       </c>
       <c r="D11" s="2">
         <v>5.6486959457397461</v>
       </c>
       <c r="E11" s="2">
-        <v>5.5865097045898438</v>
+        <v>5.5860552787780762</v>
       </c>
     </row>
     <row r="12">
@@ -252,13 +252,13 @@
         <v>5.4936356544494629</v>
       </c>
       <c r="C12" s="2">
-        <v>5.4565997123718262</v>
+        <v>5.4560384750366211</v>
       </c>
       <c r="D12" s="2">
         <v>5.6922369003295898</v>
       </c>
       <c r="E12" s="2">
-        <v>5.6382255554199219</v>
+        <v>5.6380009651184082</v>
       </c>
     </row>
     <row r="13">
@@ -269,13 +269,13 @@
         <v>6.3056406974792481</v>
       </c>
       <c r="C13" s="2">
-        <v>6.2643928527832031</v>
+        <v>6.2659192085266113</v>
       </c>
       <c r="D13" s="2">
         <v>5.6948094367980957</v>
       </c>
       <c r="E13" s="2">
-        <v>5.6409592628479004</v>
+        <v>5.6411495208740234</v>
       </c>
     </row>
     <row r="14">
@@ -286,13 +286,13 @@
         <v>5.4571723937988281</v>
       </c>
       <c r="C14" s="2">
-        <v>5.4167733192443848</v>
+        <v>5.4156155586242676</v>
       </c>
       <c r="D14" s="2">
         <v>5.8224291801452637</v>
       </c>
       <c r="E14" s="2">
-        <v>5.7801923751831055</v>
+        <v>5.7801589965820313</v>
       </c>
     </row>
     <row r="15">
@@ -303,13 +303,13 @@
         <v>5.9146013259887695</v>
       </c>
       <c r="C15" s="2">
-        <v>5.8873319625854492</v>
+        <v>5.8876967430114746</v>
       </c>
       <c r="D15" s="2">
         <v>5.8349251747131348</v>
       </c>
       <c r="E15" s="2">
-        <v>5.7945551872253418</v>
+        <v>5.7944197654724121</v>
       </c>
     </row>
     <row r="16">
@@ -320,13 +320,13 @@
         <v>6.0408816337585449</v>
       </c>
       <c r="C16" s="2">
-        <v>6.0112552642822266</v>
+        <v>6.0121736526489258</v>
       </c>
       <c r="D16" s="2">
         <v>5.8363990783691406</v>
       </c>
       <c r="E16" s="2">
-        <v>5.7897534370422363</v>
+        <v>5.7897672653198242</v>
       </c>
     </row>
     <row r="17">
@@ -337,13 +337,13 @@
         <v>5.9996933937072754</v>
       </c>
       <c r="C17" s="2">
-        <v>5.945836067199707</v>
+        <v>5.9472641944885254</v>
       </c>
       <c r="D17" s="2">
         <v>5.7614188194274902</v>
       </c>
       <c r="E17" s="2">
-        <v>5.7135281562805176</v>
+        <v>5.7137246131896973</v>
       </c>
     </row>
     <row r="18">
@@ -354,13 +354,13 @@
         <v>6.2525529861450195</v>
       </c>
       <c r="C18" s="2">
-        <v>6.2283806800842285</v>
+        <v>6.2265100479125977</v>
       </c>
       <c r="D18" s="2">
         <v>5.6302089691162109</v>
       </c>
       <c r="E18" s="2">
-        <v>5.582005500793457</v>
+        <v>5.5820131301879883</v>
       </c>
     </row>
     <row r="19">
@@ -371,13 +371,13 @@
         <v>5.866814136505127</v>
       </c>
       <c r="C19" s="2">
-        <v>5.8059678077697754</v>
+        <v>5.8060221672058105</v>
       </c>
       <c r="D19" s="2">
         <v>5.6175198554992676</v>
       </c>
       <c r="E19" s="2">
-        <v>5.5592217445373535</v>
+        <v>5.5598306655883789</v>
       </c>
     </row>
     <row r="20">
@@ -388,13 +388,13 @@
         <v>5.1966013908386231</v>
       </c>
       <c r="C20" s="2">
-        <v>5.0912413597106934</v>
+        <v>5.0906648635864258</v>
       </c>
       <c r="D20" s="2">
         <v>5.5853214263916016</v>
       </c>
       <c r="E20" s="2">
-        <v>5.5206890106201172</v>
+        <v>5.5212855339050293</v>
       </c>
     </row>
     <row r="21">
@@ -405,13 +405,13 @@
         <v>4.818809986114502</v>
       </c>
       <c r="C21" s="2">
-        <v>4.7705726623535156</v>
+        <v>4.7716550827026367</v>
       </c>
       <c r="D21" s="2">
         <v>5.5110626220703125</v>
       </c>
       <c r="E21" s="2">
-        <v>5.4474058151245117</v>
+        <v>5.4481902122497559</v>
       </c>
     </row>
     <row r="22">
@@ -422,13 +422,13 @@
         <v>5.1247549057006836</v>
       </c>
       <c r="C22" s="2">
-        <v>5.0806922912597656</v>
+        <v>5.0805168151855469</v>
       </c>
       <c r="D22" s="2">
         <v>5.4660730361938477</v>
       </c>
       <c r="E22" s="2">
-        <v>5.4005284309387207</v>
+        <v>5.401240348815918</v>
       </c>
     </row>
     <row r="23">
@@ -439,13 +439,13 @@
         <v>5.3429675102233887</v>
       </c>
       <c r="C23" s="2">
-        <v>5.2117195129394531</v>
+        <v>5.2159719467163086</v>
       </c>
       <c r="D23" s="2">
         <v>5.3781313896179199</v>
       </c>
       <c r="E23" s="2">
-        <v>5.2963662147521973</v>
+        <v>5.297264575958252</v>
       </c>
     </row>
     <row r="24">
@@ -456,13 +456,13 @@
         <v>5.6248159408569336</v>
       </c>
       <c r="C24" s="2">
-        <v>5.5405364036560059</v>
+        <v>5.5407929420471192</v>
       </c>
       <c r="D24" s="2">
         <v>5.3765053749084473</v>
       </c>
       <c r="E24" s="2">
-        <v>5.2911272048950195</v>
+        <v>5.2919807434082031</v>
       </c>
     </row>
     <row r="25">
@@ -473,13 +473,13 @@
         <v>5.3725547790527344</v>
       </c>
       <c r="C25" s="2">
-        <v>5.3517045974731445</v>
+        <v>5.3543128967285156</v>
       </c>
       <c r="D25" s="2">
         <v>5.4768271446228027</v>
       </c>
       <c r="E25" s="2">
-        <v>5.3965768814086914</v>
+        <v>5.3974018096923828</v>
       </c>
     </row>
     <row r="26">
@@ -490,13 +490,13 @@
         <v>5.5947842597961426</v>
       </c>
       <c r="C26" s="2">
-        <v>5.5239396095275879</v>
+        <v>5.524714469909668</v>
       </c>
       <c r="D26" s="2">
         <v>5.6750822067260742</v>
       </c>
       <c r="E26" s="2">
-        <v>5.588773250579834</v>
+        <v>5.5900530815124512</v>
       </c>
     </row>
     <row r="27">
@@ -507,13 +507,13 @@
         <v>5.4610805511474609</v>
       </c>
       <c r="C27" s="2">
-        <v>5.2909231185913086</v>
+        <v>5.2907299995422363</v>
       </c>
       <c r="D27" s="2">
         <v>5.7748432159423828</v>
       </c>
       <c r="E27" s="2">
-        <v>5.6891255378723145</v>
+        <v>5.690037727355957</v>
       </c>
     </row>
     <row r="28">
@@ -524,13 +524,13 @@
         <v>5.8521804809570313</v>
       </c>
       <c r="C28" s="2">
-        <v>5.7588157653808594</v>
+        <v>5.7584695816040039</v>
       </c>
       <c r="D28" s="2">
         <v>5.861783504486084</v>
       </c>
       <c r="E28" s="2">
-        <v>5.7837686538696289</v>
+        <v>5.7832107543945313</v>
       </c>
     </row>
     <row r="29">
@@ -541,13 +541,13 @@
         <v>6.0994977951049805</v>
       </c>
       <c r="C29" s="2">
-        <v>6.0402865409851074</v>
+        <v>6.0394530296325684</v>
       </c>
       <c r="D29" s="2">
         <v>5.9633522033691406</v>
       </c>
       <c r="E29" s="2">
-        <v>5.8952398300170898</v>
+        <v>5.893643856048584</v>
       </c>
     </row>
     <row r="30">
@@ -558,13 +558,13 @@
         <v>6.6031031608581543</v>
       </c>
       <c r="C30" s="2">
-        <v>6.5003409385681152</v>
+        <v>6.5055179595947266</v>
       </c>
       <c r="D30" s="2">
         <v>6.1079134941101074</v>
       </c>
       <c r="E30" s="2">
-        <v>6.0406036376953125</v>
+        <v>6.0374479293823242</v>
       </c>
     </row>
     <row r="31">
@@ -575,13 +575,13 @@
         <v>6.0226054191589355</v>
       </c>
       <c r="C31" s="2">
-        <v>5.9838614463806152</v>
+        <v>5.9803767204284668</v>
       </c>
       <c r="D31" s="2">
         <v>6.231046199798584</v>
       </c>
       <c r="E31" s="2">
-        <v>6.1617317199707031</v>
+        <v>6.1579456329345703</v>
       </c>
     </row>
     <row r="32">
@@ -592,13 +592,13 @@
         <v>6.1254277229309082</v>
       </c>
       <c r="C32" s="2">
-        <v>6.0635075569152832</v>
+        <v>6.0545287132263184</v>
       </c>
       <c r="D32" s="2">
         <v>6.3293147087097168</v>
       </c>
       <c r="E32" s="2">
-        <v>6.2751312255859375</v>
+        <v>6.2709379196166992</v>
       </c>
     </row>
     <row r="33">
@@ -609,13 +609,13 @@
         <v>6.5389351844787598</v>
       </c>
       <c r="C33" s="2">
-        <v>6.5437774658203125</v>
+        <v>6.534691333770752</v>
       </c>
       <c r="D33" s="2">
         <v>6.4010438919067383</v>
       </c>
       <c r="E33" s="2">
-        <v>6.3509330749511719</v>
+        <v>6.3466238975524902</v>
       </c>
     </row>
     <row r="34">
@@ -626,13 +626,13 @@
         <v>6.6736087799072266</v>
       </c>
       <c r="C34" s="2">
-        <v>6.6599817276000977</v>
+        <v>6.6485500335693359</v>
       </c>
       <c r="D34" s="2">
         <v>6.440340518951416</v>
       </c>
       <c r="E34" s="2">
-        <v>6.3951349258422852</v>
+        <v>6.3895645141601563</v>
       </c>
     </row>
     <row r="35">
@@ -643,13 +643,13 @@
         <v>6.7029752731323242</v>
       </c>
       <c r="C35" s="2">
-        <v>6.6140913963317871</v>
+        <v>6.6091938018798828</v>
       </c>
       <c r="D35" s="2">
         <v>6.4409151077270508</v>
       </c>
       <c r="E35" s="2">
-        <v>6.4008455276489258</v>
+        <v>6.3936882019042969</v>
       </c>
     </row>
     <row r="36">
@@ -660,13 +660,13 @@
         <v>6.3454971313476563</v>
       </c>
       <c r="C36" s="2">
-        <v>6.3115172386169434</v>
+        <v>6.3076581954956055</v>
       </c>
       <c r="D36" s="2">
         <v>6.5012750625610352</v>
       </c>
       <c r="E36" s="2">
-        <v>6.4642939567565918</v>
+        <v>6.4565892219543457</v>
       </c>
     </row>
     <row r="37">
@@ -677,13 +677,13 @@
         <v>6.497744083404541</v>
       </c>
       <c r="C37" s="2">
-        <v>6.441035270690918</v>
+        <v>6.4396433830261231</v>
       </c>
       <c r="D37" s="2">
         <v>6.5255379676818848</v>
       </c>
       <c r="E37" s="2">
-        <v>6.4973864555358887</v>
+        <v>6.4898586273193359</v>
       </c>
     </row>
     <row r="38">
@@ -694,13 +694,13 @@
         <v>6.4531660079956055</v>
       </c>
       <c r="C38" s="2">
-        <v>6.4380998611450195</v>
+        <v>6.4259209632873535</v>
       </c>
       <c r="D38" s="2">
         <v>6.5302543640136719</v>
       </c>
       <c r="E38" s="2">
-        <v>6.4840688705444336</v>
+        <v>6.4759278297424317</v>
       </c>
     </row>
     <row r="39">
@@ -711,13 +711,13 @@
         <v>6.6082763671875</v>
       </c>
       <c r="C39" s="2">
-        <v>6.5517382621765137</v>
+        <v>6.5426297187805176</v>
       </c>
       <c r="D39" s="2">
         <v>6.4985394477844238</v>
       </c>
       <c r="E39" s="2">
-        <v>6.4460601806640625</v>
+        <v>6.438164234161377</v>
       </c>
     </row>
     <row r="40">
@@ -728,13 +728,13 @@
         <v>6.5658445358276367</v>
       </c>
       <c r="C40" s="2">
-        <v>6.5548977851867676</v>
+        <v>6.5464849472045899</v>
       </c>
       <c r="D40" s="2">
         <v>6.4407458305358887</v>
       </c>
       <c r="E40" s="2">
-        <v>6.3855209350585938</v>
+        <v>6.3775577545166016</v>
       </c>
     </row>
     <row r="41">
@@ -745,13 +745,13 @@
         <v>6.3437948226928711</v>
       </c>
       <c r="C41" s="2">
-        <v>6.3613371849060059</v>
+        <v>6.3539552688598633</v>
       </c>
       <c r="D41" s="2">
         <v>6.4252057075500488</v>
       </c>
       <c r="E41" s="2">
-        <v>6.3659548759460449</v>
+        <v>6.3569316864013672</v>
       </c>
     </row>
     <row r="42">
@@ -762,13 +762,13 @@
         <v>6.5813808441162109</v>
       </c>
       <c r="C42" s="2">
-        <v>6.4239201545715332</v>
+        <v>6.4093132019042969</v>
       </c>
       <c r="D42" s="2">
         <v>6.3403725624084473</v>
       </c>
       <c r="E42" s="2">
-        <v>6.2751693725585938</v>
+        <v>6.265533447265625</v>
       </c>
     </row>
     <row r="43">
@@ -779,13 +779,13 @@
         <v>6.3881769180297852</v>
       </c>
       <c r="C43" s="2">
-        <v>6.3179025650024414</v>
+        <v>6.3086771965026855</v>
       </c>
       <c r="D43" s="2">
         <v>6.2758331298828125</v>
       </c>
       <c r="E43" s="2">
-        <v>6.2023115158081055</v>
+        <v>6.1928806304931641</v>
       </c>
     </row>
     <row r="44">
@@ -796,13 +796,13 @@
         <v>6.1828327178955078</v>
       </c>
       <c r="C44" s="2">
-        <v>6.0692386627197266</v>
+        <v>6.0637369155883789</v>
       </c>
       <c r="D44" s="2">
         <v>6.1890888214111328</v>
       </c>
       <c r="E44" s="2">
-        <v>6.1141557693481445</v>
+        <v>6.1043782234191895</v>
       </c>
     </row>
     <row r="45">
@@ -813,13 +813,13 @@
         <v>6.2056341171264649</v>
       </c>
       <c r="C45" s="2">
-        <v>6.1354241371154785</v>
+        <v>6.1220240592956543</v>
       </c>
       <c r="D45" s="2">
         <v>6.0504612922668457</v>
       </c>
       <c r="E45" s="2">
-        <v>5.9727420806884766</v>
+        <v>5.962801456451416</v>
       </c>
     </row>
     <row r="46">
@@ -830,13 +830,13 @@
         <v>5.734245777130127</v>
       </c>
       <c r="C46" s="2">
-        <v>5.6239666938781738</v>
+        <v>5.6170573234558106</v>
       </c>
       <c r="D46" s="2">
         <v>5.9565725326538086</v>
       </c>
       <c r="E46" s="2">
-        <v>5.8745722770690918</v>
+        <v>5.8637137413024902</v>
       </c>
     </row>
     <row r="47">
@@ -847,13 +847,13 @@
         <v>5.8723130226135254</v>
       </c>
       <c r="C47" s="2">
-        <v>5.782379150390625</v>
+        <v>5.7720460891723633</v>
       </c>
       <c r="D47" s="2">
         <v>5.8458490371704102</v>
       </c>
       <c r="E47" s="2">
-        <v>5.7696757316589355</v>
+        <v>5.759181022644043</v>
       </c>
     </row>
     <row r="48">
@@ -864,13 +864,13 @@
         <v>5.8275761604309082</v>
       </c>
       <c r="C48" s="2">
-        <v>5.7583346366882324</v>
+        <v>5.7461071014404297</v>
       </c>
       <c r="D48" s="2">
         <v>5.7523899078369141</v>
       </c>
       <c r="E48" s="2">
-        <v>5.6782407760620117</v>
+        <v>5.6664018630981445</v>
       </c>
     </row>
     <row r="49">
@@ -881,13 +881,13 @@
         <v>5.3181986808776856</v>
       </c>
       <c r="C49" s="2">
-        <v>5.2821760177612305</v>
+        <v>5.2722969055175781</v>
       </c>
       <c r="D49" s="2">
-        <v>5.6985845565795898</v>
+        <v>5.7289185523986816</v>
       </c>
       <c r="E49" s="2">
-        <v>5.6293659210205078</v>
+        <v>5.6379823684692383</v>
       </c>
     </row>
     <row r="50">
@@ -898,13 +898,13 @@
         <v>5.4987936019897461</v>
       </c>
       <c r="C50" s="2">
-        <v>5.4778094291687012</v>
+        <v>5.4621648788452148</v>
       </c>
       <c r="D50" s="2">
-        <v>5.6261487007141113</v>
+        <v>5.6627049446105957</v>
       </c>
       <c r="E50" s="2">
-        <v>5.5570716857910156</v>
+        <v>5.5637407302856445</v>
       </c>
     </row>
     <row r="51">
@@ -915,13 +915,13 @@
         <v>5.5848722457885742</v>
       </c>
       <c r="C51" s="2">
-        <v>5.4798483848571777</v>
+        <v>5.4685187339782715</v>
       </c>
       <c r="D51" s="2">
-        <v>5.6081328392028809</v>
+        <v>5.6605381965637207</v>
       </c>
       <c r="E51" s="2">
-        <v>5.5459227561950684</v>
+        <v>5.5607333183288574</v>
       </c>
     </row>
     <row r="52">
@@ -932,14 +932,83 @@
         <v>5.5470428466796875</v>
       </c>
       <c r="C52" s="2">
-        <v>5.4949884414672852</v>
+        <v>5.4736666679382324</v>
       </c>
       <c r="D52" s="2">
-        <v>5.5552968978881836</v>
+        <v>5.6340665817260742</v>
       </c>
       <c r="E52" s="2">
-        <v>5.498631477355957</v>
-      </c>
+        <v>5.5343189239501953</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B53" s="2">
+        <v>5.9715890884399414</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5.807960033416748</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5.606421947479248</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5.504063606262207</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5.6097111701965332</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5.4538493156433106</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5.6544594764709473</v>
+      </c>
+      <c r="E54" s="2">
+        <v>5.5426912307739258</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5.714747428894043</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5.5899882316589356</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5.6855926513671875</v>
+      </c>
+      <c r="E55" s="2">
+        <v>5.5587964057922363</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
   </sheetData>
 </worksheet>

--- a/ECB_stdev.xlsx
+++ b/ECB_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,13 +133,13 @@
         <v>5.7047338485717773</v>
       </c>
       <c r="C5" s="2">
-        <v>5.6461710929870605</v>
+        <v>5.647674560546875</v>
       </c>
       <c r="D5" s="2">
         <v>5.6991052627563477</v>
       </c>
       <c r="E5" s="2">
-        <v>5.6111245155334473</v>
+        <v>5.6075396537780762</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>6.0612626075744629</v>
       </c>
       <c r="C6" s="2">
-        <v>5.9704365730285645</v>
+        <v>5.9655489921569824</v>
       </c>
       <c r="D6" s="2">
         <v>5.7083125114440918</v>
       </c>
       <c r="E6" s="2">
-        <v>5.622215747833252</v>
+        <v>5.6186976432800293</v>
       </c>
     </row>
     <row r="7">
@@ -167,13 +167,13 @@
         <v>5.649012565612793</v>
       </c>
       <c r="C7" s="2">
-        <v>5.5446615219116211</v>
+        <v>5.5414590835571289</v>
       </c>
       <c r="D7" s="2">
         <v>5.6333155632019043</v>
       </c>
       <c r="E7" s="2">
-        <v>5.5522623062133789</v>
+        <v>5.5496826171875</v>
       </c>
     </row>
     <row r="8">
@@ -184,13 +184,13 @@
         <v>5.9765419960021973</v>
       </c>
       <c r="C8" s="2">
-        <v>5.9189281463623047</v>
+        <v>5.9174699783325195</v>
       </c>
       <c r="D8" s="2">
         <v>5.6158556938171387</v>
       </c>
       <c r="E8" s="2">
-        <v>5.5402340888977051</v>
+        <v>5.538426399230957</v>
       </c>
     </row>
     <row r="9">
@@ -201,13 +201,13 @@
         <v>5.1039748191833496</v>
       </c>
       <c r="C9" s="2">
-        <v>4.9754242897033691</v>
+        <v>4.9655461311340332</v>
       </c>
       <c r="D9" s="2">
         <v>5.6924982070922852</v>
       </c>
       <c r="E9" s="2">
-        <v>5.6208658218383789</v>
+        <v>5.6199564933776855</v>
       </c>
     </row>
     <row r="10">
@@ -218,13 +218,13 @@
         <v>5.7543487548828125</v>
       </c>
       <c r="C10" s="2">
-        <v>5.6776738166809082</v>
+        <v>5.6744871139526367</v>
       </c>
       <c r="D10" s="2">
         <v>5.6649913787841797</v>
       </c>
       <c r="E10" s="2">
-        <v>5.5952486991882324</v>
+        <v>5.5932760238647461</v>
       </c>
     </row>
     <row r="11">
@@ -235,13 +235,13 @@
         <v>5.1833343505859375</v>
       </c>
       <c r="C11" s="2">
-        <v>5.1325392723083496</v>
+        <v>5.1355934143066406</v>
       </c>
       <c r="D11" s="2">
         <v>5.6486959457397461</v>
       </c>
       <c r="E11" s="2">
-        <v>5.5860552787780762</v>
+        <v>5.5838813781738281</v>
       </c>
     </row>
     <row r="12">
@@ -252,13 +252,13 @@
         <v>5.4936356544494629</v>
       </c>
       <c r="C12" s="2">
-        <v>5.4560384750366211</v>
+        <v>5.4596328735351562</v>
       </c>
       <c r="D12" s="2">
         <v>5.6922369003295898</v>
       </c>
       <c r="E12" s="2">
-        <v>5.6380009651184082</v>
+        <v>5.6361603736877441</v>
       </c>
     </row>
     <row r="13">
@@ -266,16 +266,16 @@
         <v>44166</v>
       </c>
       <c r="B13" s="2">
-        <v>6.3056406974792481</v>
+        <v>6.305640697479248</v>
       </c>
       <c r="C13" s="2">
-        <v>6.2659192085266113</v>
+        <v>6.2721972465515137</v>
       </c>
       <c r="D13" s="2">
         <v>5.6948094367980957</v>
       </c>
       <c r="E13" s="2">
-        <v>5.6411495208740234</v>
+        <v>5.640160083770752</v>
       </c>
     </row>
     <row r="14">
@@ -286,13 +286,13 @@
         <v>5.4571723937988281</v>
       </c>
       <c r="C14" s="2">
-        <v>5.4156155586242676</v>
+        <v>5.4075484275817871</v>
       </c>
       <c r="D14" s="2">
         <v>5.8224291801452637</v>
       </c>
       <c r="E14" s="2">
-        <v>5.7801589965820313</v>
+        <v>5.7810730934143066</v>
       </c>
     </row>
     <row r="15">
@@ -303,13 +303,13 @@
         <v>5.9146013259887695</v>
       </c>
       <c r="C15" s="2">
-        <v>5.8876967430114746</v>
+        <v>5.8810000419616699</v>
       </c>
       <c r="D15" s="2">
         <v>5.8349251747131348</v>
       </c>
       <c r="E15" s="2">
-        <v>5.7944197654724121</v>
+        <v>5.796140193939209</v>
       </c>
     </row>
     <row r="16">
@@ -320,13 +320,13 @@
         <v>6.0408816337585449</v>
       </c>
       <c r="C16" s="2">
-        <v>6.0121736526489258</v>
+        <v>6.0119681358337402</v>
       </c>
       <c r="D16" s="2">
         <v>5.8363990783691406</v>
       </c>
       <c r="E16" s="2">
-        <v>5.7897672653198242</v>
+        <v>5.7908806800842285</v>
       </c>
     </row>
     <row r="17">
@@ -337,13 +337,13 @@
         <v>5.9996933937072754</v>
       </c>
       <c r="C17" s="2">
-        <v>5.9472641944885254</v>
+        <v>5.953467845916748</v>
       </c>
       <c r="D17" s="2">
         <v>5.7614188194274902</v>
       </c>
       <c r="E17" s="2">
-        <v>5.7137246131896973</v>
+        <v>5.7143263816833496</v>
       </c>
     </row>
     <row r="18">
@@ -354,13 +354,13 @@
         <v>6.2525529861450195</v>
       </c>
       <c r="C18" s="2">
-        <v>6.2265100479125977</v>
+        <v>6.2337617874145508</v>
       </c>
       <c r="D18" s="2">
         <v>5.6302089691162109</v>
       </c>
       <c r="E18" s="2">
-        <v>5.5820131301879883</v>
+        <v>5.581913948059082</v>
       </c>
     </row>
     <row r="19">
@@ -371,13 +371,13 @@
         <v>5.866814136505127</v>
       </c>
       <c r="C19" s="2">
-        <v>5.8060221672058105</v>
+        <v>5.8100934028625488</v>
       </c>
       <c r="D19" s="2">
         <v>5.6175198554992676</v>
       </c>
       <c r="E19" s="2">
-        <v>5.5598306655883789</v>
+        <v>5.5591616630554199</v>
       </c>
     </row>
     <row r="20">
@@ -385,16 +385,16 @@
         <v>44378</v>
       </c>
       <c r="B20" s="2">
-        <v>5.1966013908386231</v>
+        <v>5.196601390838623</v>
       </c>
       <c r="C20" s="2">
-        <v>5.0906648635864258</v>
+        <v>5.0882563591003418</v>
       </c>
       <c r="D20" s="2">
         <v>5.5853214263916016</v>
       </c>
       <c r="E20" s="2">
-        <v>5.5212855339050293</v>
+        <v>5.5207943916320801</v>
       </c>
     </row>
     <row r="21">
@@ -405,13 +405,13 @@
         <v>4.818809986114502</v>
       </c>
       <c r="C21" s="2">
-        <v>4.7716550827026367</v>
+        <v>4.7706451416015625</v>
       </c>
       <c r="D21" s="2">
         <v>5.5110626220703125</v>
       </c>
       <c r="E21" s="2">
-        <v>5.4481902122497559</v>
+        <v>5.4479928016662598</v>
       </c>
     </row>
     <row r="22">
@@ -422,13 +422,13 @@
         <v>5.1247549057006836</v>
       </c>
       <c r="C22" s="2">
-        <v>5.0805168151855469</v>
+        <v>5.0804829597473145</v>
       </c>
       <c r="D22" s="2">
         <v>5.4660730361938477</v>
       </c>
       <c r="E22" s="2">
-        <v>5.401240348815918</v>
+        <v>5.400670051574707</v>
       </c>
     </row>
     <row r="23">
@@ -439,13 +439,13 @@
         <v>5.3429675102233887</v>
       </c>
       <c r="C23" s="2">
-        <v>5.2159719467163086</v>
+        <v>5.2027802467346191</v>
       </c>
       <c r="D23" s="2">
         <v>5.3781313896179199</v>
       </c>
       <c r="E23" s="2">
-        <v>5.297264575958252</v>
+        <v>5.2951059341430664</v>
       </c>
     </row>
     <row r="24">
@@ -456,13 +456,13 @@
         <v>5.6248159408569336</v>
       </c>
       <c r="C24" s="2">
-        <v>5.5407929420471192</v>
+        <v>5.5356922149658203</v>
       </c>
       <c r="D24" s="2">
         <v>5.3765053749084473</v>
       </c>
       <c r="E24" s="2">
-        <v>5.2919807434082031</v>
+        <v>5.2893743515014648</v>
       </c>
     </row>
     <row r="25">
@@ -473,13 +473,13 @@
         <v>5.3725547790527344</v>
       </c>
       <c r="C25" s="2">
-        <v>5.3543128967285156</v>
+        <v>5.3567571640014648</v>
       </c>
       <c r="D25" s="2">
         <v>5.4768271446228027</v>
       </c>
       <c r="E25" s="2">
-        <v>5.3974018096923828</v>
+        <v>5.394986629486084</v>
       </c>
     </row>
     <row r="26">
@@ -490,13 +490,13 @@
         <v>5.5947842597961426</v>
       </c>
       <c r="C26" s="2">
-        <v>5.524714469909668</v>
+        <v>5.5275616645812988</v>
       </c>
       <c r="D26" s="2">
         <v>5.6750822067260742</v>
       </c>
       <c r="E26" s="2">
-        <v>5.5900530815124512</v>
+        <v>5.5882949829101562</v>
       </c>
     </row>
     <row r="27">
@@ -507,13 +507,13 @@
         <v>5.4610805511474609</v>
       </c>
       <c r="C27" s="2">
-        <v>5.2907299995422363</v>
+        <v>5.2836828231811523</v>
       </c>
       <c r="D27" s="2">
         <v>5.7748432159423828</v>
       </c>
       <c r="E27" s="2">
-        <v>5.690037727355957</v>
+        <v>5.688011646270752</v>
       </c>
     </row>
     <row r="28">
@@ -521,16 +521,16 @@
         <v>44621</v>
       </c>
       <c r="B28" s="2">
-        <v>5.8521804809570313</v>
+        <v>5.8521804809570312</v>
       </c>
       <c r="C28" s="2">
-        <v>5.7584695816040039</v>
+        <v>5.758509635925293</v>
       </c>
       <c r="D28" s="2">
         <v>5.861783504486084</v>
       </c>
       <c r="E28" s="2">
-        <v>5.7832107543945313</v>
+        <v>5.781522274017334</v>
       </c>
     </row>
     <row r="29">
@@ -541,13 +541,13 @@
         <v>6.0994977951049805</v>
       </c>
       <c r="C29" s="2">
-        <v>6.0394530296325684</v>
+        <v>6.0387692451477051</v>
       </c>
       <c r="D29" s="2">
         <v>5.9633522033691406</v>
       </c>
       <c r="E29" s="2">
-        <v>5.893643856048584</v>
+        <v>5.8913154602050781</v>
       </c>
     </row>
     <row r="30">
@@ -558,13 +558,13 @@
         <v>6.6031031608581543</v>
       </c>
       <c r="C30" s="2">
-        <v>6.5055179595947266</v>
+        <v>6.5104174613952637</v>
       </c>
       <c r="D30" s="2">
         <v>6.1079134941101074</v>
       </c>
       <c r="E30" s="2">
-        <v>6.0374479293823242</v>
+        <v>6.0332798957824707</v>
       </c>
     </row>
     <row r="31">
@@ -575,13 +575,13 @@
         <v>6.0226054191589355</v>
       </c>
       <c r="C31" s="2">
-        <v>5.9803767204284668</v>
+        <v>5.9779353141784668</v>
       </c>
       <c r="D31" s="2">
         <v>6.231046199798584</v>
       </c>
       <c r="E31" s="2">
-        <v>6.1579456329345703</v>
+        <v>6.1529388427734375</v>
       </c>
     </row>
     <row r="32">
@@ -592,13 +592,13 @@
         <v>6.1254277229309082</v>
       </c>
       <c r="C32" s="2">
-        <v>6.0545287132263184</v>
+        <v>6.044374942779541</v>
       </c>
       <c r="D32" s="2">
         <v>6.3293147087097168</v>
       </c>
       <c r="E32" s="2">
-        <v>6.2709379196166992</v>
+        <v>6.266258716583252</v>
       </c>
     </row>
     <row r="33">
@@ -609,13 +609,13 @@
         <v>6.5389351844787598</v>
       </c>
       <c r="C33" s="2">
-        <v>6.534691333770752</v>
+        <v>6.523831844329834</v>
       </c>
       <c r="D33" s="2">
         <v>6.4010438919067383</v>
       </c>
       <c r="E33" s="2">
-        <v>6.3466238975524902</v>
+        <v>6.3415679931640625</v>
       </c>
     </row>
     <row r="34">
@@ -626,13 +626,13 @@
         <v>6.6736087799072266</v>
       </c>
       <c r="C34" s="2">
-        <v>6.6485500335693359</v>
+        <v>6.6344366073608398</v>
       </c>
       <c r="D34" s="2">
         <v>6.440340518951416</v>
       </c>
       <c r="E34" s="2">
-        <v>6.3895645141601563</v>
+        <v>6.3831486701965332</v>
       </c>
     </row>
     <row r="35">
@@ -643,13 +643,13 @@
         <v>6.7029752731323242</v>
       </c>
       <c r="C35" s="2">
-        <v>6.6091938018798828</v>
+        <v>6.6044936180114746</v>
       </c>
       <c r="D35" s="2">
         <v>6.4409151077270508</v>
       </c>
       <c r="E35" s="2">
-        <v>6.3936882019042969</v>
+        <v>6.3860697746276855</v>
       </c>
     </row>
     <row r="36">
@@ -657,16 +657,16 @@
         <v>44866</v>
       </c>
       <c r="B36" s="2">
-        <v>6.3454971313476563</v>
+        <v>6.3454971313476562</v>
       </c>
       <c r="C36" s="2">
-        <v>6.3076581954956055</v>
+        <v>6.3035612106323242</v>
       </c>
       <c r="D36" s="2">
         <v>6.5012750625610352</v>
       </c>
       <c r="E36" s="2">
-        <v>6.4565892219543457</v>
+        <v>6.4491972923278809</v>
       </c>
     </row>
     <row r="37">
@@ -677,13 +677,13 @@
         <v>6.497744083404541</v>
       </c>
       <c r="C37" s="2">
-        <v>6.4396433830261231</v>
+        <v>6.4362921714782715</v>
       </c>
       <c r="D37" s="2">
         <v>6.5255379676818848</v>
       </c>
       <c r="E37" s="2">
-        <v>6.4898586273193359</v>
+        <v>6.4834651947021484</v>
       </c>
     </row>
     <row r="38">
@@ -694,13 +694,13 @@
         <v>6.4531660079956055</v>
       </c>
       <c r="C38" s="2">
-        <v>6.4259209632873535</v>
+        <v>6.4129962921142578</v>
       </c>
       <c r="D38" s="2">
         <v>6.5302543640136719</v>
       </c>
       <c r="E38" s="2">
-        <v>6.4759278297424317</v>
+        <v>6.4698481559753418</v>
       </c>
     </row>
     <row r="39">
@@ -711,13 +711,13 @@
         <v>6.6082763671875</v>
       </c>
       <c r="C39" s="2">
-        <v>6.5426297187805176</v>
+        <v>6.536707878112793</v>
       </c>
       <c r="D39" s="2">
         <v>6.4985394477844238</v>
       </c>
       <c r="E39" s="2">
-        <v>6.438164234161377</v>
+        <v>6.4328503608703613</v>
       </c>
     </row>
     <row r="40">
@@ -728,13 +728,13 @@
         <v>6.5658445358276367</v>
       </c>
       <c r="C40" s="2">
-        <v>6.5464849472045899</v>
+        <v>6.5460801124572754</v>
       </c>
       <c r="D40" s="2">
         <v>6.4407458305358887</v>
       </c>
       <c r="E40" s="2">
-        <v>6.3775577545166016</v>
+        <v>6.3719758987426758</v>
       </c>
     </row>
     <row r="41">
@@ -745,13 +745,13 @@
         <v>6.3437948226928711</v>
       </c>
       <c r="C41" s="2">
-        <v>6.3539552688598633</v>
+        <v>6.3527865409851074</v>
       </c>
       <c r="D41" s="2">
         <v>6.4252057075500488</v>
       </c>
       <c r="E41" s="2">
-        <v>6.3569316864013672</v>
+        <v>6.3504338264465332</v>
       </c>
     </row>
     <row r="42">
@@ -762,13 +762,13 @@
         <v>6.5813808441162109</v>
       </c>
       <c r="C42" s="2">
-        <v>6.4093132019042969</v>
+        <v>6.4012770652770996</v>
       </c>
       <c r="D42" s="2">
         <v>6.3403725624084473</v>
       </c>
       <c r="E42" s="2">
-        <v>6.265533447265625</v>
+        <v>6.2584586143493652</v>
       </c>
     </row>
     <row r="43">
@@ -779,13 +779,13 @@
         <v>6.3881769180297852</v>
       </c>
       <c r="C43" s="2">
-        <v>6.3086771965026855</v>
+        <v>6.3014569282531738</v>
       </c>
       <c r="D43" s="2">
         <v>6.2758331298828125</v>
       </c>
       <c r="E43" s="2">
-        <v>6.1928806304931641</v>
+        <v>6.1858644485473633</v>
       </c>
     </row>
     <row r="44">
@@ -796,13 +796,13 @@
         <v>6.1828327178955078</v>
       </c>
       <c r="C44" s="2">
-        <v>6.0637369155883789</v>
+        <v>6.0566267967224121</v>
       </c>
       <c r="D44" s="2">
         <v>6.1890888214111328</v>
       </c>
       <c r="E44" s="2">
-        <v>6.1043782234191895</v>
+        <v>6.0964183807373047</v>
       </c>
     </row>
     <row r="45">
@@ -810,16 +810,16 @@
         <v>45139</v>
       </c>
       <c r="B45" s="2">
-        <v>6.2056341171264649</v>
+        <v>6.2056341171264648</v>
       </c>
       <c r="C45" s="2">
-        <v>6.1220240592956543</v>
+        <v>6.1096820831298828</v>
       </c>
       <c r="D45" s="2">
         <v>6.0504612922668457</v>
       </c>
       <c r="E45" s="2">
-        <v>5.962801456451416</v>
+        <v>5.9534921646118164</v>
       </c>
     </row>
     <row r="46">
@@ -830,13 +830,13 @@
         <v>5.734245777130127</v>
       </c>
       <c r="C46" s="2">
-        <v>5.6170573234558106</v>
+        <v>5.608515739440918</v>
       </c>
       <c r="D46" s="2">
         <v>5.9565725326538086</v>
       </c>
       <c r="E46" s="2">
-        <v>5.8637137413024902</v>
+        <v>5.8527154922485352</v>
       </c>
     </row>
     <row r="47">
@@ -847,13 +847,13 @@
         <v>5.8723130226135254</v>
       </c>
       <c r="C47" s="2">
-        <v>5.7720460891723633</v>
+        <v>5.759648323059082</v>
       </c>
       <c r="D47" s="2">
         <v>5.8458490371704102</v>
       </c>
       <c r="E47" s="2">
-        <v>5.759181022644043</v>
+        <v>5.7476334571838379</v>
       </c>
     </row>
     <row r="48">
@@ -864,13 +864,13 @@
         <v>5.8275761604309082</v>
       </c>
       <c r="C48" s="2">
-        <v>5.7461071014404297</v>
+        <v>5.7316904067993164</v>
       </c>
       <c r="D48" s="2">
         <v>5.7523899078369141</v>
       </c>
       <c r="E48" s="2">
-        <v>5.6664018630981445</v>
+        <v>5.6532292366027832</v>
       </c>
     </row>
     <row r="49">
@@ -878,16 +878,16 @@
         <v>45261</v>
       </c>
       <c r="B49" s="2">
-        <v>5.3181986808776856</v>
+        <v>5.3181986808776855</v>
       </c>
       <c r="C49" s="2">
-        <v>5.2722969055175781</v>
+        <v>5.2597446441650391</v>
       </c>
       <c r="D49" s="2">
         <v>5.7289185523986816</v>
       </c>
       <c r="E49" s="2">
-        <v>5.6379823684692383</v>
+        <v>5.6242489814758301</v>
       </c>
     </row>
     <row r="50">
@@ -898,13 +898,13 @@
         <v>5.4987936019897461</v>
       </c>
       <c r="C50" s="2">
-        <v>5.4621648788452148</v>
+        <v>5.4457979202270508</v>
       </c>
       <c r="D50" s="2">
         <v>5.6627049446105957</v>
       </c>
       <c r="E50" s="2">
-        <v>5.5637407302856445</v>
+        <v>5.5500292778015137</v>
       </c>
     </row>
     <row r="51">
@@ -915,13 +915,13 @@
         <v>5.5848722457885742</v>
       </c>
       <c r="C51" s="2">
-        <v>5.4685187339782715</v>
+        <v>5.4555373191833496</v>
       </c>
       <c r="D51" s="2">
         <v>5.6605381965637207</v>
       </c>
       <c r="E51" s="2">
-        <v>5.5607333183288574</v>
+        <v>5.5456857681274414</v>
       </c>
     </row>
     <row r="52">
@@ -932,13 +932,13 @@
         <v>5.5470428466796875</v>
       </c>
       <c r="C52" s="2">
-        <v>5.4736666679382324</v>
+        <v>5.4518184661865234</v>
       </c>
       <c r="D52" s="2">
-        <v>5.6340665817260742</v>
+        <v>5.6019387245178223</v>
       </c>
       <c r="E52" s="2">
-        <v>5.5343189239501953</v>
+        <v>5.4816675186157227</v>
       </c>
     </row>
     <row r="53">
@@ -949,13 +949,13 @@
         <v>5.9715890884399414</v>
       </c>
       <c r="C53" s="2">
-        <v>5.807960033416748</v>
+        <v>5.7958078384399414</v>
       </c>
       <c r="D53" s="2">
-        <v>5.606421947479248</v>
+        <v>5.529076099395752</v>
       </c>
       <c r="E53" s="2">
-        <v>5.504063606262207</v>
+        <v>5.3986625671386719</v>
       </c>
     </row>
     <row r="54">
@@ -966,13 +966,13 @@
         <v>5.6097111701965332</v>
       </c>
       <c r="C54" s="2">
-        <v>5.4538493156433106</v>
+        <v>5.4417014122009277</v>
       </c>
       <c r="D54" s="2">
-        <v>5.6544594764709473</v>
+        <v>5.5129237174987793</v>
       </c>
       <c r="E54" s="2">
-        <v>5.5426912307739258</v>
+        <v>5.3745760917663574</v>
       </c>
     </row>
     <row r="55">
@@ -983,32 +983,167 @@
         <v>5.714747428894043</v>
       </c>
       <c r="C55" s="2">
-        <v>5.5899882316589356</v>
+        <v>5.569425106048584</v>
       </c>
       <c r="D55" s="2">
-        <v>5.6855926513671875</v>
+        <v>5.4908051490783691</v>
       </c>
       <c r="E55" s="2">
-        <v>5.5587964057922363</v>
+        <v>5.3444395065307617</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
         <v>45474</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="B56" s="2">
+        <v>5.3449158668518066</v>
+      </c>
+      <c r="C56" s="2">
+        <v>5.1834864616394043</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5.4599113464355469</v>
+      </c>
+      <c r="E56" s="2">
+        <v>5.3135108947753906</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
         <v>45505</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="B57" s="2">
+        <v>5.1718158721923828</v>
+      </c>
+      <c r="C57" s="2">
+        <v>4.9846453666687012</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5.4095525741577148</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5.2712693214416504</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5.1728272438049316</v>
+      </c>
+      <c r="C58" s="2">
+        <v>5.0429649353027344</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5.3094196319580078</v>
+      </c>
+      <c r="E58" s="2">
+        <v>5.1814041137695312</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5.2997260093688965</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5.1745672225952148</v>
+      </c>
+      <c r="D59" s="2">
+        <v>5.3068537712097168</v>
+      </c>
+      <c r="E59" s="2">
+        <v>5.1773700714111328</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5.3068251609802246</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5.1771798133850098</v>
+      </c>
+      <c r="D60" s="2">
+        <v>5.2760229110717773</v>
+      </c>
+      <c r="E60" s="2">
+        <v>5.1442837715148926</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5.0938138961791992</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5.0716452598571777</v>
+      </c>
+      <c r="D61" s="2">
+        <v>5.2674112319946289</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5.1393833160400391</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5.0703945159912109</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4.9870219230651855</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5.2810678482055664</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5.1614885330200195</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5.5866193771362305</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5.4053940773010254</v>
+      </c>
+      <c r="D63" s="2">
+        <v>5.299107551574707</v>
+      </c>
+      <c r="E63" s="2">
+        <v>5.1812424659729004</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5.4372677803039551</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5.2716474533081055</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5.2989840507507324</v>
+      </c>
+      <c r="E64" s="2">
+        <v>5.1825776100158691</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/ECB_stdev.xlsx
+++ b/ECB_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1145,6 +1145,15 @@
         <v>5.1825776100158691</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>